--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/L1cam-Erbb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/L1cam-Erbb3.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.88712433333333</v>
+        <v>6.603177</v>
       </c>
       <c r="H2">
-        <v>35.661373</v>
+        <v>19.809531</v>
       </c>
       <c r="I2">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645301</v>
       </c>
       <c r="J2">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645302</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1680563333333333</v>
+        <v>0.1311436666666667</v>
       </c>
       <c r="N2">
-        <v>0.504169</v>
+        <v>0.393431</v>
       </c>
       <c r="O2">
-        <v>0.03491515448966758</v>
+        <v>0.02663441993971509</v>
       </c>
       <c r="P2">
-        <v>0.03491515448966757</v>
+        <v>0.02663441993971509</v>
       </c>
       <c r="Q2">
-        <v>1.997706529337444</v>
+        <v>0.8659648434289999</v>
       </c>
       <c r="R2">
-        <v>17.979358764037</v>
+        <v>7.793683590861</v>
       </c>
       <c r="S2">
-        <v>0.02083467326065285</v>
+        <v>0.01367804619993165</v>
       </c>
       <c r="T2">
-        <v>0.02083467326065284</v>
+        <v>0.01367804619993165</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.88712433333333</v>
+        <v>6.603177</v>
       </c>
       <c r="H3">
-        <v>35.661373</v>
+        <v>19.809531</v>
       </c>
       <c r="I3">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645301</v>
       </c>
       <c r="J3">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645302</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>0.908345</v>
       </c>
       <c r="O3">
-        <v>0.06290550590162643</v>
+        <v>0.06149297381279183</v>
       </c>
       <c r="P3">
-        <v>0.06290550590162643</v>
+        <v>0.06149297381279183</v>
       </c>
       <c r="Q3">
-        <v>3.599203317520555</v>
+        <v>1.999320937355</v>
       </c>
       <c r="R3">
-        <v>32.39282985768499</v>
+        <v>17.993888436195</v>
       </c>
       <c r="S3">
-        <v>0.03753715774462077</v>
+        <v>0.03157957780519814</v>
       </c>
       <c r="T3">
-        <v>0.03753715774462077</v>
+        <v>0.03157957780519815</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.88712433333333</v>
+        <v>6.603177</v>
       </c>
       <c r="H4">
-        <v>35.661373</v>
+        <v>19.809531</v>
       </c>
       <c r="I4">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645301</v>
       </c>
       <c r="J4">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645302</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.950355666666666</v>
+        <v>4.009307333333333</v>
       </c>
       <c r="N4">
-        <v>11.851067</v>
+        <v>12.027922</v>
       </c>
       <c r="O4">
-        <v>0.8207205027925185</v>
+        <v>0.8142640654908683</v>
       </c>
       <c r="P4">
-        <v>0.8207205027925184</v>
+        <v>0.8142640654908684</v>
       </c>
       <c r="Q4">
-        <v>46.95836897055455</v>
+        <v>26.474165969398</v>
       </c>
       <c r="R4">
-        <v>422.6253207349909</v>
+        <v>238.267493724582</v>
       </c>
       <c r="S4">
-        <v>0.4897427424833843</v>
+        <v>0.4181634716257088</v>
       </c>
       <c r="T4">
-        <v>0.4897427424833842</v>
+        <v>0.4181634716257089</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.88712433333333</v>
+        <v>6.603177</v>
       </c>
       <c r="H5">
-        <v>35.661373</v>
+        <v>19.809531</v>
       </c>
       <c r="I5">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645301</v>
       </c>
       <c r="J5">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645302</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3920839999999999</v>
+        <v>0.480609</v>
       </c>
       <c r="N5">
-        <v>1.176252</v>
+        <v>1.441827</v>
       </c>
       <c r="O5">
-        <v>0.08145883681618755</v>
+        <v>0.09760854075662465</v>
       </c>
       <c r="P5">
-        <v>0.08145883681618755</v>
+        <v>0.09760854075662465</v>
       </c>
       <c r="Q5">
-        <v>4.660751257110666</v>
+        <v>3.173546294793</v>
       </c>
       <c r="R5">
-        <v>41.94676131399599</v>
+        <v>28.561916653137</v>
       </c>
       <c r="S5">
-        <v>0.04860835571443193</v>
+        <v>0.05012664563369141</v>
       </c>
       <c r="T5">
-        <v>0.04860835571443193</v>
+        <v>0.05012664563369142</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>1.135769</v>
       </c>
       <c r="I6">
-        <v>0.01900486009268527</v>
+        <v>0.02944398858046029</v>
       </c>
       <c r="J6">
-        <v>0.01900486009268527</v>
+        <v>0.0294439885804603</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.1680563333333333</v>
+        <v>0.1311436666666667</v>
       </c>
       <c r="N6">
-        <v>0.504169</v>
+        <v>0.393431</v>
       </c>
       <c r="O6">
-        <v>0.03491515448966758</v>
+        <v>0.02663441993971509</v>
       </c>
       <c r="P6">
-        <v>0.03491515448966757</v>
+        <v>0.02663441993971509</v>
       </c>
       <c r="Q6">
-        <v>0.06362439121788889</v>
+        <v>0.04964963704877778</v>
       </c>
       <c r="R6">
-        <v>0.572619520961</v>
+        <v>0.446846733439</v>
       </c>
       <c r="S6">
-        <v>0.0006635576261906245</v>
+        <v>0.000784223556552155</v>
       </c>
       <c r="T6">
-        <v>0.0006635576261906244</v>
+        <v>0.0007842235565521551</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1.135769</v>
       </c>
       <c r="I7">
-        <v>0.01900486009268527</v>
+        <v>0.02944398858046029</v>
       </c>
       <c r="J7">
-        <v>0.01900486009268527</v>
+        <v>0.0294439885804603</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>0.908345</v>
       </c>
       <c r="O7">
-        <v>0.06290550590162643</v>
+        <v>0.06149297381279183</v>
       </c>
       <c r="P7">
-        <v>0.06290550590162643</v>
+        <v>0.06149297381279183</v>
       </c>
       <c r="Q7">
         <v>0.1146300102561111</v>
@@ -883,10 +883,10 @@
         <v>1.031670092305</v>
       </c>
       <c r="S7">
-        <v>0.001195510338719998</v>
+        <v>0.001810598418722386</v>
       </c>
       <c r="T7">
-        <v>0.001195510338719998</v>
+        <v>0.001810598418722387</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>1.135769</v>
       </c>
       <c r="I8">
-        <v>0.01900486009268527</v>
+        <v>0.02944398858046029</v>
       </c>
       <c r="J8">
-        <v>0.01900486009268527</v>
+        <v>0.0294439885804603</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.950355666666666</v>
+        <v>4.009307333333333</v>
       </c>
       <c r="N8">
-        <v>11.851067</v>
+        <v>12.027922</v>
       </c>
       <c r="O8">
-        <v>0.8207205027925185</v>
+        <v>0.8142640654908683</v>
       </c>
       <c r="P8">
-        <v>0.8207205027925184</v>
+        <v>0.8142640654908684</v>
       </c>
       <c r="Q8">
-        <v>1.495563835058111</v>
+        <v>1.517882326890889</v>
       </c>
       <c r="R8">
-        <v>13.460074515523</v>
+        <v>13.660940942018</v>
       </c>
       <c r="S8">
-        <v>0.01559767833077013</v>
+        <v>0.0239751818457923</v>
       </c>
       <c r="T8">
-        <v>0.01559767833077013</v>
+        <v>0.0239751818457923</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>1.135769</v>
       </c>
       <c r="I9">
-        <v>0.01900486009268527</v>
+        <v>0.02944398858046029</v>
       </c>
       <c r="J9">
-        <v>0.01900486009268527</v>
+        <v>0.0294439885804603</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.3920839999999999</v>
+        <v>0.480609</v>
       </c>
       <c r="N9">
-        <v>1.176252</v>
+        <v>1.441827</v>
       </c>
       <c r="O9">
-        <v>0.08145883681618755</v>
+        <v>0.09760854075662465</v>
       </c>
       <c r="P9">
-        <v>0.08145883681618755</v>
+        <v>0.09760854075662465</v>
       </c>
       <c r="Q9">
-        <v>0.1484389508653333</v>
+        <v>0.181953601107</v>
       </c>
       <c r="R9">
-        <v>1.335950557788</v>
+        <v>1.637582409963</v>
       </c>
       <c r="S9">
-        <v>0.001548113797004525</v>
+        <v>0.002873984759393449</v>
       </c>
       <c r="T9">
-        <v>0.001548113797004525</v>
+        <v>0.002873984759393449</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.531764333333333</v>
+        <v>3.441487333333333</v>
       </c>
       <c r="H10">
-        <v>10.595293</v>
+        <v>10.324462</v>
       </c>
       <c r="I10">
-        <v>0.1772913868101768</v>
+        <v>0.2676541983690312</v>
       </c>
       <c r="J10">
-        <v>0.1772913868101768</v>
+        <v>0.2676541983690313</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.1680563333333333</v>
+        <v>0.1311436666666667</v>
       </c>
       <c r="N10">
-        <v>0.504169</v>
+        <v>0.393431</v>
       </c>
       <c r="O10">
-        <v>0.03491515448966758</v>
+        <v>0.02663441993971509</v>
       </c>
       <c r="P10">
-        <v>0.03491515448966757</v>
+        <v>0.02663441993971509</v>
       </c>
       <c r="Q10">
-        <v>0.5935353640574444</v>
+        <v>0.4513292676802222</v>
       </c>
       <c r="R10">
-        <v>5.341818276516999</v>
+        <v>4.061963409122</v>
       </c>
       <c r="S10">
-        <v>0.006190156160164734</v>
+        <v>0.007128814317988583</v>
       </c>
       <c r="T10">
-        <v>0.006190156160164734</v>
+        <v>0.007128814317988584</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.531764333333333</v>
+        <v>3.441487333333333</v>
       </c>
       <c r="H11">
-        <v>10.595293</v>
+        <v>10.324462</v>
       </c>
       <c r="I11">
-        <v>0.1772913868101768</v>
+        <v>0.2676541983690312</v>
       </c>
       <c r="J11">
-        <v>0.1772913868101768</v>
+        <v>0.2676541983690313</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>0.908345</v>
       </c>
       <c r="O11">
-        <v>0.06290550590162643</v>
+        <v>0.06149297381279183</v>
       </c>
       <c r="P11">
-        <v>0.06290550590162643</v>
+        <v>0.06149297381279183</v>
       </c>
       <c r="Q11">
-        <v>1.069353491120556</v>
+        <v>1.042019270598889</v>
       </c>
       <c r="R11">
-        <v>9.624181420085</v>
+        <v>9.37817343539</v>
       </c>
       <c r="S11">
-        <v>0.01115260437929511</v>
+        <v>0.01645885261119063</v>
       </c>
       <c r="T11">
-        <v>0.01115260437929511</v>
+        <v>0.01645885261119063</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.531764333333333</v>
+        <v>3.441487333333333</v>
       </c>
       <c r="H12">
-        <v>10.595293</v>
+        <v>10.324462</v>
       </c>
       <c r="I12">
-        <v>0.1772913868101768</v>
+        <v>0.2676541983690312</v>
       </c>
       <c r="J12">
-        <v>0.1772913868101768</v>
+        <v>0.2676541983690313</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.950355666666666</v>
+        <v>4.009307333333333</v>
       </c>
       <c r="N12">
-        <v>11.851067</v>
+        <v>12.027922</v>
       </c>
       <c r="O12">
-        <v>0.8207205027925185</v>
+        <v>0.8142640654908683</v>
       </c>
       <c r="P12">
-        <v>0.8207205027925184</v>
+        <v>0.8142640654908684</v>
       </c>
       <c r="Q12">
-        <v>13.95172524751455</v>
+        <v>13.79798040310711</v>
       </c>
       <c r="R12">
-        <v>125.565527227631</v>
+        <v>124.181823627964</v>
       </c>
       <c r="S12">
-        <v>0.1455066761236312</v>
+        <v>0.2179411957096667</v>
       </c>
       <c r="T12">
-        <v>0.1455066761236311</v>
+        <v>0.2179411957096667</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.531764333333333</v>
+        <v>3.441487333333333</v>
       </c>
       <c r="H13">
-        <v>10.595293</v>
+        <v>10.324462</v>
       </c>
       <c r="I13">
-        <v>0.1772913868101768</v>
+        <v>0.2676541983690312</v>
       </c>
       <c r="J13">
-        <v>0.1772913868101768</v>
+        <v>0.2676541983690313</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3920839999999999</v>
+        <v>0.480609</v>
       </c>
       <c r="N13">
-        <v>1.176252</v>
+        <v>1.441827</v>
       </c>
       <c r="O13">
-        <v>0.08145883681618755</v>
+        <v>0.09760854075662465</v>
       </c>
       <c r="P13">
-        <v>0.08145883681618755</v>
+        <v>0.09760854075662465</v>
       </c>
       <c r="Q13">
-        <v>1.384748286870666</v>
+        <v>1.654009785786</v>
       </c>
       <c r="R13">
-        <v>12.462734581836</v>
+        <v>14.886088072074</v>
       </c>
       <c r="S13">
-        <v>0.01444195014708577</v>
+        <v>0.02612533573018528</v>
       </c>
       <c r="T13">
-        <v>0.01444195014708577</v>
+        <v>0.02612533573018529</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.123197999999999</v>
+        <v>2.434707333333333</v>
       </c>
       <c r="H14">
-        <v>12.369594</v>
+        <v>7.304122</v>
       </c>
       <c r="I14">
-        <v>0.2069808238940481</v>
+        <v>0.1893540717859783</v>
       </c>
       <c r="J14">
-        <v>0.2069808238940482</v>
+        <v>0.1893540717859783</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.1680563333333333</v>
+        <v>0.1311436666666667</v>
       </c>
       <c r="N14">
-        <v>0.504169</v>
+        <v>0.393431</v>
       </c>
       <c r="O14">
-        <v>0.03491515448966758</v>
+        <v>0.02663441993971509</v>
       </c>
       <c r="P14">
-        <v>0.03491515448966757</v>
+        <v>0.02663441993971509</v>
       </c>
       <c r="Q14">
-        <v>0.6929295374873332</v>
+        <v>0.3192964469535555</v>
       </c>
       <c r="R14">
-        <v>6.236365837386</v>
+        <v>2.873668022582</v>
       </c>
       <c r="S14">
-        <v>0.00722676744265937</v>
+        <v>0.005043335865242702</v>
       </c>
       <c r="T14">
-        <v>0.007226767442659369</v>
+        <v>0.005043335865242703</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.123197999999999</v>
+        <v>2.434707333333333</v>
       </c>
       <c r="H15">
-        <v>12.369594</v>
+        <v>7.304122</v>
       </c>
       <c r="I15">
-        <v>0.2069808238940481</v>
+        <v>0.1893540717859783</v>
       </c>
       <c r="J15">
-        <v>0.2069808238940482</v>
+        <v>0.1893540717859783</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>0.908345</v>
       </c>
       <c r="O15">
-        <v>0.06290550590162643</v>
+        <v>0.06149297381279183</v>
       </c>
       <c r="P15">
-        <v>0.06290550590162643</v>
+        <v>0.06149297381279183</v>
       </c>
       <c r="Q15">
-        <v>1.248428762436667</v>
+        <v>0.7371847442322222</v>
       </c>
       <c r="R15">
-        <v>11.23585886193</v>
+        <v>6.634662698090001</v>
       </c>
       <c r="S15">
-        <v>0.01302023343899055</v>
+        <v>0.01164394497768067</v>
       </c>
       <c r="T15">
-        <v>0.01302023343899055</v>
+        <v>0.01164394497768067</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.123197999999999</v>
+        <v>2.434707333333333</v>
       </c>
       <c r="H16">
-        <v>12.369594</v>
+        <v>7.304122</v>
       </c>
       <c r="I16">
-        <v>0.2069808238940481</v>
+        <v>0.1893540717859783</v>
       </c>
       <c r="J16">
-        <v>0.2069808238940482</v>
+        <v>0.1893540717859783</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.950355666666666</v>
+        <v>4.009307333333333</v>
       </c>
       <c r="N16">
-        <v>11.851067</v>
+        <v>12.027922</v>
       </c>
       <c r="O16">
-        <v>0.8207205027925185</v>
+        <v>0.8142640654908683</v>
       </c>
       <c r="P16">
-        <v>0.8207205027925184</v>
+        <v>0.8142640654908684</v>
       </c>
       <c r="Q16">
-        <v>16.28809858408866</v>
+        <v>9.761489966053777</v>
       </c>
       <c r="R16">
-        <v>146.592887256798</v>
+        <v>87.853409694484</v>
       </c>
       <c r="S16">
-        <v>0.1698734058547329</v>
+        <v>0.1541842163097004</v>
       </c>
       <c r="T16">
-        <v>0.1698734058547329</v>
+        <v>0.1541842163097004</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.123197999999999</v>
+        <v>2.434707333333333</v>
       </c>
       <c r="H17">
-        <v>12.369594</v>
+        <v>7.304122</v>
       </c>
       <c r="I17">
-        <v>0.2069808238940481</v>
+        <v>0.1893540717859783</v>
       </c>
       <c r="J17">
-        <v>0.2069808238940482</v>
+        <v>0.1893540717859783</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.3920839999999999</v>
+        <v>0.480609</v>
       </c>
       <c r="N17">
-        <v>1.176252</v>
+        <v>1.441827</v>
       </c>
       <c r="O17">
-        <v>0.08145883681618755</v>
+        <v>0.09760854075662465</v>
       </c>
       <c r="P17">
-        <v>0.08145883681618755</v>
+        <v>0.09760854075662465</v>
       </c>
       <c r="Q17">
-        <v>1.616639964632</v>
+        <v>1.170142256766</v>
       </c>
       <c r="R17">
-        <v>14.549759681688</v>
+        <v>10.531280310894</v>
       </c>
       <c r="S17">
-        <v>0.01686041715766532</v>
+        <v>0.01848257463335449</v>
       </c>
       <c r="T17">
-        <v>0.01686041715766532</v>
+        <v>0.0184825746333545</v>
       </c>
     </row>
   </sheetData>
